--- a/public/Hindustan Petroleum Corporation Ltd_Environment.xlsx
+++ b/public/Hindustan Petroleum Corporation Ltd_Environment.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data collection sheet'!$A$1:$AK$373</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="32000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
